--- a/data/hotels_by_city/Dallas/Dallas_shard_716.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_716.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,300 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r507530635-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>225495</t>
+  </si>
+  <si>
+    <t>507530635</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for; sometimes less.</t>
+  </si>
+  <si>
+    <t>You get what you pay for; sometimes less. That is what we got here. First, the staff was lackluster and indifferent. We were there for a consultation at a local hospital so we were pressed for time to make it on time. The first room they gave us was not cleaned. So we went back to the front office to ask for another room.  The staff wanted us to wait 15 minutes to have the room cleaned. He were very pressed for time but agreed. Thirty minutes later we were still waiting. Another trip to the front desk. They seemed very put out but finally gave us another room. To their benefit the room was bigger than we asked for but it reeked of cigarette smoke. Oh well; we are late we will live with it. Upon return that night we noticed the room was very dated, needed a lot of TLC and some paint. The roiled seat needed repair. Light shown through the bottom of the door and the security lock on the door was loose. The pillows are tiny but the bed was comfortable.  I'm sure we will have to return to this area again soon; but I'm going somewhere else. Even at the discount rate we felt cheated. So long Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 Dallas - Plano Medical Center, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for; sometimes less. That is what we got here. First, the staff was lackluster and indifferent. We were there for a consultation at a local hospital so we were pressed for time to make it on time. The first room they gave us was not cleaned. So we went back to the front office to ask for another room.  The staff wanted us to wait 15 minutes to have the room cleaned. He were very pressed for time but agreed. Thirty minutes later we were still waiting. Another trip to the front desk. They seemed very put out but finally gave us another room. To their benefit the room was bigger than we asked for but it reeked of cigarette smoke. Oh well; we are late we will live with it. Upon return that night we noticed the room was very dated, needed a lot of TLC and some paint. The roiled seat needed repair. Light shown through the bottom of the door and the security lock on the door was loose. The pillows are tiny but the bed was comfortable.  I'm sure we will have to return to this area again soon; but I'm going somewhere else. Even at the discount rate we felt cheated. So long Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r445978095-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>445978095</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Not the Motel 6 company you see on TV commercials ... not in same universe</t>
+  </si>
+  <si>
+    <t>Ok, this is a really low-cost place in a highly traveled/expensive part of No Dallas metroplex. There's a reason this place is &lt;50% cost of several chain motels within 1-block ... simple ... it's cheap because otherwise no one would stay there. Other reviewers went into great detail highlighting the absurd lack of cleanliness, abject filth, deferred maintenance, disrepair, lack of amenities - much less working amenities, safety perceptions, etc ... and it's all true ... so no need for em to play "let me top your horror story". I offer a warning: check the reviews post 2014. For the past 2-years, the Bates Motel w/Norman rates higher amongst guests. READ recent reviews. I paid $51/night for 3-nights. If it was $5/night I wouldn't do it again. I got lazy - by having decent recent Motel 6 experiences - &amp; did not do my homework; I did not read the last 12-months (or any) reviews. As a result, I suffered ... &amp; rightly so. My fault. Caveat Emptor says it best. The parent company should be ashamed that this Motel is allowed to keep their franchise &amp;/or management. I would never chance staying at any Motel 6 and/or Studio 6 again ... much less this particular location. If I'm lying - let me be dying.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ok, this is a really low-cost place in a highly traveled/expensive part of No Dallas metroplex. There's a reason this place is &lt;50% cost of several chain motels within 1-block ... simple ... it's cheap because otherwise no one would stay there. Other reviewers went into great detail highlighting the absurd lack of cleanliness, abject filth, deferred maintenance, disrepair, lack of amenities - much less working amenities, safety perceptions, etc ... and it's all true ... so no need for em to play "let me top your horror story". I offer a warning: check the reviews post 2014. For the past 2-years, the Bates Motel w/Norman rates higher amongst guests. READ recent reviews. I paid $51/night for 3-nights. If it was $5/night I wouldn't do it again. I got lazy - by having decent recent Motel 6 experiences - &amp; did not do my homework; I did not read the last 12-months (or any) reviews. As a result, I suffered ... &amp; rightly so. My fault. Caveat Emptor says it best. The parent company should be ashamed that this Motel is allowed to keep their franchise &amp;/or management. I would never chance staying at any Motel 6 and/or Studio 6 again ... much less this particular location. If I'm lying - let me be dying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r438867208-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>438867208</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>On a Budget, You get what you pay for</t>
+  </si>
+  <si>
+    <t>Not much, TV had bad reception, towel rack coming off the wall. No Shampoo given. AC worked OK. Elevator in the back, out of the way. We were on the third floor. My sister in law said (after seeing our room) NO THANK YOU. No continental breakfast. No coffee in the lobby. If you have to go to the office, sometimes they don't ever come out to see what you want. Cheapest in the area, Factor in no breakfast. Not such a good deal.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r364744477-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>364744477</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Rude Management, Cockroaches, and Housing Feel</t>
+  </si>
+  <si>
+    <t>Well I have tried this place 3 times and it does not get better,  First time ChristmasDay 2015,  I had been staying at the La Quinta and decided I wanted a kitchen for Christmas dinner so I got on booking.com and booked a room at the Studio 6 in Plano,  soon as I got there there were issues.  They would not accept my reservations.  They were not full but apparently the manager hates women as I later found out.  He would not allow me to check in at all.Second time I tried again  they rented me a room that smelled so much like cats my eyes swollen shut in a matter of minutes.But this third time was amazing,  from the start it felt like a housing project,  People hanging outside, friendly as can be.... but very much into your business.  Under the cabnets were rotted out... see pix.  roaches climbing all over the walls.  filth under the cabnets,  fridge barely cooled and was filthy,  batteries out of the fire alarm, tub did not drain.  trash all over parking lot,   One woman had been promised the room that I was given and she had to  at me about it everytime I went up the stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Well I have tried this place 3 times and it does not get better,  First time ChristmasDay 2015,  I had been staying at the La Quinta and decided I wanted a kitchen for Christmas dinner so I got on booking.com and booked a room at the Studio 6 in Plano,  soon as I got there there were issues.  They would not accept my reservations.  They were not full but apparently the manager hates women as I later found out.  He would not allow me to check in at all.Second time I tried again  they rented me a room that smelled so much like cats my eyes swollen shut in a matter of minutes.But this third time was amazing,  from the start it felt like a housing project,  People hanging outside, friendly as can be.... but very much into your business.  Under the cabnets were rotted out... see pix.  roaches climbing all over the walls.  filth under the cabnets,  fridge barely cooled and was filthy,  batteries out of the fire alarm, tub did not drain.  trash all over parking lot,   One woman had been promised the room that I was given and she had to  at me about it everytime I went up the stairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r362398639-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>362398639</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Terrible place</t>
+  </si>
+  <si>
+    <t>Pool and spa were green and filthy.  Maid didn't leave clean towels had to go up front to get more.  Only were able to get one wash cloth and 2 towels.  No Hand towelsBreakfast was poor.  Out of alot of food and didn't replace.  Stayed 5 nights.  Neveragain</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r344400419-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>344400419</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Met my needs but could improve in several areas</t>
+  </si>
+  <si>
+    <t>Stayed here for 28 days because it was next door to The Heart Hospital Baylor Plano where my family member underwent open heart surgery.  The room met my needs but was not as clean as it should have been by the staff.  I solved this by purchasing minimum cleaning supplies and cleaning my room myself to my standards.  The front desk was not warm and outgoing, but friendly and not rude.  Laundry facilities were dirty and left marks on my clothing so I found a laundromat elsewhere and used it.  Bathroom was not very clean but I was able to make it work by cleaning it myself.  The shower did not have water pressure. In a pinch, I would use it again but would prefer a different hotel.  One morning, there were homeless people sleeping under the stairwell outside leading to the rooms on the upper floors.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 28 days because it was next door to The Heart Hospital Baylor Plano where my family member underwent open heart surgery.  The room met my needs but was not as clean as it should have been by the staff.  I solved this by purchasing minimum cleaning supplies and cleaning my room myself to my standards.  The front desk was not warm and outgoing, but friendly and not rude.  Laundry facilities were dirty and left marks on my clothing so I found a laundromat elsewhere and used it.  Bathroom was not very clean but I was able to make it work by cleaning it myself.  The shower did not have water pressure. In a pinch, I would use it again but would prefer a different hotel.  One morning, there were homeless people sleeping under the stairwell outside leading to the rooms on the upper floors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r311367447-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>311367447</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Convenient and comfy</t>
+  </si>
+  <si>
+    <t>Stayed 5 nights and the place was clean and comfy with everything you need in an apartment - stove top, fridge/freezer, microwave, coffee maker, cutlery and dishes etc; good pressure in the shower; comfy bed; working aircon; double locks on the door; close to various eateries. Will absolutely stay again after I get my driver's license. - A couple of tiny cockroaches when we first got there at night, but they'd moved out by bedtime never to be seen again.- Pretty noisy; the bed shakes pretty heavily when the cleaning ladies go by with their trolleys.- Horrible picture quality on the TV.- Pretty difficult getting around the area without a car.- Night staff was a bit odd...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Stayed 5 nights and the place was clean and comfy with everything you need in an apartment - stove top, fridge/freezer, microwave, coffee maker, cutlery and dishes etc; good pressure in the shower; comfy bed; working aircon; double locks on the door; close to various eateries. Will absolutely stay again after I get my driver's license. - A couple of tiny cockroaches when we first got there at night, but they'd moved out by bedtime never to be seen again.- Pretty noisy; the bed shakes pretty heavily when the cleaning ladies go by with their trolleys.- Horrible picture quality on the TV.- Pretty difficult getting around the area without a car.- Night staff was a bit odd...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r310675700-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>310675700</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Short Term Stay</t>
+  </si>
+  <si>
+    <t>Hadn't planned on staying, but it was recommended to me by a friend.  The rooms are medium sized with a small kitchen (2 burner stove, microwave, fridge,and cooking utensils), television and king sized bed. Rooms are clean and the building is pretty quiet at night.  There are a couple of chain restaurants within walking distance.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r297648381-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>297648381</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>This is the worst place I've every stayed and I live on the road for business so I've been at several places. Along with the filthy laundry room, the substandard furnishings in the room, the filthy grounds, loud neighbors, (no one here after 8 pm in the office to complain to when they start up at midnight), to the rude lying foreign maids, of which you can't talk to or ask questions unless you speak Spanish. This is a place to avoid at all costs. My tv is snowy and management does nothing about it. Fire alarm goes off and no one checks on it. No management no fire trucks nothing. I feel so safe (sarcasm). People live here! And they are not travelers here for work, at a business. The first thing I did was coat the place with roach spray just in case. I think I have a good barricade. O I'm at this place because my company put me here but I will never do it again.     May fill out another comment later this is just my first of three months here. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This is the worst place I've every stayed and I live on the road for business so I've been at several places. Along with the filthy laundry room, the substandard furnishings in the room, the filthy grounds, loud neighbors, (no one here after 8 pm in the office to complain to when they start up at midnight), to the rude lying foreign maids, of which you can't talk to or ask questions unless you speak Spanish. This is a place to avoid at all costs. My tv is snowy and management does nothing about it. Fire alarm goes off and no one checks on it. No management no fire trucks nothing. I feel so safe (sarcasm). People live here! And they are not travelers here for work, at a business. The first thing I did was coat the place with roach spray just in case. I think I have a good barricade. O I'm at this place because my company put me here but I will never do it again.     May fill out another comment later this is just my first of three months here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r239857986-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>239857986</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>What a Surprize</t>
+  </si>
+  <si>
+    <t>From the overview of their website it sounded mediocre, small fridge and microwave, nothing really special but when I got there the staff was so friendly , the room was great, clean and the fridge was full size, so was the microwave including all utensil's, clean parking lot and reception area and the maid didn't mind giving extra coffee and didn't come knock'n even the do not disturb sign was out,stayed 2 nights, great value, staff and Hotel!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234559729-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>234559729</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>“Great place to stay”</t>
+  </si>
+  <si>
+    <t>This is a great hotel., good rates and excellent service All the staff were very friendly with smiles on their face at all times. Very nice sitting area . Free wifi! Rooms are clean, amenities are nice...Hotel was clean &amp; updated.... i will be back in the future.Thank You!!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234204023-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>234204023</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>I live locally and when the AC went out at home I needed a place to stay for 2 days. I found the studio 6 listing and was a little leary because of past reviews but figured heck it's close and it's only 2 days. I was pleasantly surprised at the cleanliness and size of the rooms they are about as big as a studio apartment with a full kitchen and flat screen tvs. The pics are accurate and up to date. Staff was very pleasant when I needed a light bulb changed in the bathroom they sent someone right away with no problem. I found it to be quiet and secure as they have security that patrol the propety. All in all was a great stay and will definitely send the inlaws here next time they are in town lol :) P.S. I tried submitting this once already so I hope it does not post twice?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I live locally and when the AC went out at home I needed a place to stay for 2 days. I found the studio 6 listing and was a little leary because of past reviews but figured heck it's close and it's only 2 days. I was pleasantly surprised at the cleanliness and size of the rooms they are about as big as a studio apartment with a full kitchen and flat screen tvs. The pics are accurate and up to date. Staff was very pleasant when I needed a light bulb changed in the bathroom they sent someone right away with no problem. I found it to be quiet and secure as they have security that patrol the propety. All in all was a great stay and will definitely send the inlaws here next time they are in town lol :) P.S. I tried submitting this once already so I hope it does not post twice?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234140265-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>234140265</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>Nick (manager) is very friendly and professional he is very helpful with any questions I had about the hotel. Rene (Front desk) is always friendly and helpful as well. They have security at night he walks around and you can call him in the middle of the night . The whole staff here does a great job. The room itself was clean and decent and property is clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r215215802-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>215215802</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Run!</t>
+  </si>
+  <si>
+    <t>How can I say this with being politically correct.... It amazes me that other people come to this country and buy businesses but have know clue of what customer service is. You don't argue with me if I am telling you there's a problem with my room, and then flat out lie to me about switching rooms. I hope you enjoy the money that you did make of my stay because I will never be back. The only good thing about this hotel is when I was able to check out.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +939,860 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_716.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_716.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kevin M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>You get what you pay for; sometimes less. That is what we got here. First, the staff was lackluster and indifferent. We were there for a consultation at a local hospital so we were pressed for time to make it on time. The first room they gave us was not cleaned. So we went back to the front office to ask for another room.  The staff wanted us to wait 15 minutes to have the room cleaned. He were very pressed for time but agreed. Thirty minutes later we were still waiting. Another trip to the front desk. They seemed very put out but finally gave us another room. To their benefit the room was bigger than we asked for but it reeked of cigarette smoke. Oh well; we are late we will live with it. Upon return that night we noticed the room was very dated, needed a lot of TLC and some paint. The roiled seat needed repair. Light shown through the bottom of the door and the security lock on the door was loose. The pillows are tiny but the bed was comfortable.  I'm sure we will have to return to this area again soon; but I'm going somewhere else. Even at the discount rate we felt cheated. So long Motel 6.More</t>
   </si>
   <si>
+    <t>GrodTzu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r445978095-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Ok, this is a really low-cost place in a highly traveled/expensive part of No Dallas metroplex. There's a reason this place is &lt;50% cost of several chain motels within 1-block ... simple ... it's cheap because otherwise no one would stay there. Other reviewers went into great detail highlighting the absurd lack of cleanliness, abject filth, deferred maintenance, disrepair, lack of amenities - much less working amenities, safety perceptions, etc ... and it's all true ... so no need for em to play "let me top your horror story". I offer a warning: check the reviews post 2014. For the past 2-years, the Bates Motel w/Norman rates higher amongst guests. READ recent reviews. I paid $51/night for 3-nights. If it was $5/night I wouldn't do it again. I got lazy - by having decent recent Motel 6 experiences - &amp; did not do my homework; I did not read the last 12-months (or any) reviews. As a result, I suffered ... &amp; rightly so. My fault. Caveat Emptor says it best. The parent company should be ashamed that this Motel is allowed to keep their franchise &amp;/or management. I would never chance staying at any Motel 6 and/or Studio 6 again ... much less this particular location. If I'm lying - let me be dying.More</t>
   </si>
   <si>
+    <t>RippedOff42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r438867208-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>13bedbugz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r364744477-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Well I have tried this place 3 times and it does not get better,  First time ChristmasDay 2015,  I had been staying at the La Quinta and decided I wanted a kitchen for Christmas dinner so I got on booking.com and booked a room at the Studio 6 in Plano,  soon as I got there there were issues.  They would not accept my reservations.  They were not full but apparently the manager hates women as I later found out.  He would not allow me to check in at all.Second time I tried again  they rented me a room that smelled so much like cats my eyes swollen shut in a matter of minutes.But this third time was amazing,  from the start it felt like a housing project,  People hanging outside, friendly as can be.... but very much into your business.  Under the cabnets were rotted out... see pix.  roaches climbing all over the walls.  filth under the cabnets,  fridge barely cooled and was filthy,  batteries out of the fire alarm, tub did not drain.  trash all over parking lot,   One woman had been promised the room that I was given and she had to  at me about it everytime I went up the stairs.More</t>
   </si>
   <si>
+    <t>mpdolls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r362398639-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Linda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r344400419-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Stayed here for 28 days because it was next door to The Heart Hospital Baylor Plano where my family member underwent open heart surgery.  The room met my needs but was not as clean as it should have been by the staff.  I solved this by purchasing minimum cleaning supplies and cleaning my room myself to my standards.  The front desk was not warm and outgoing, but friendly and not rude.  Laundry facilities were dirty and left marks on my clothing so I found a laundromat elsewhere and used it.  Bathroom was not very clean but I was able to make it work by cleaning it myself.  The shower did not have water pressure. In a pinch, I would use it again but would prefer a different hotel.  One morning, there were homeless people sleeping under the stairwell outside leading to the rooms on the upper floors.More</t>
   </si>
   <si>
+    <t>Heseriwa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r311367447-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>Stayed 5 nights and the place was clean and comfy with everything you need in an apartment - stove top, fridge/freezer, microwave, coffee maker, cutlery and dishes etc; good pressure in the shower; comfy bed; working aircon; double locks on the door; close to various eateries. Will absolutely stay again after I get my driver's license. - A couple of tiny cockroaches when we first got there at night, but they'd moved out by bedtime never to be seen again.- Pretty noisy; the bed shakes pretty heavily when the cleaning ladies go by with their trolleys.- Horrible picture quality on the TV.- Pretty difficult getting around the area without a car.- Night staff was a bit odd...More</t>
   </si>
   <si>
+    <t>Joseph C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r310675700-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>ShirleyP1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r297648381-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>This is the worst place I've every stayed and I live on the road for business so I've been at several places. Along with the filthy laundry room, the substandard furnishings in the room, the filthy grounds, loud neighbors, (no one here after 8 pm in the office to complain to when they start up at midnight), to the rude lying foreign maids, of which you can't talk to or ask questions unless you speak Spanish. This is a place to avoid at all costs. My tv is snowy and management does nothing about it. Fire alarm goes off and no one checks on it. No management no fire trucks nothing. I feel so safe (sarcasm). People live here! And they are not travelers here for work, at a business. The first thing I did was coat the place with roach spray just in case. I think I have a good barricade. O I'm at this place because my company put me here but I will never do it again.     May fill out another comment later this is just my first of three months here. More</t>
   </si>
   <si>
+    <t>Melody K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r239857986-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>mr san p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234559729-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>25l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234204023-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>I live locally and when the AC went out at home I needed a place to stay for 2 days. I found the studio 6 listing and was a little leary because of past reviews but figured heck it's close and it's only 2 days. I was pleasantly surprised at the cleanliness and size of the rooms they are about as big as a studio apartment with a full kitchen and flat screen tvs. The pics are accurate and up to date. Staff was very pleasant when I needed a light bulb changed in the bathroom they sent someone right away with no problem. I found it to be quiet and secure as they have security that patrol the propety. All in all was a great stay and will definitely send the inlaws here next time they are in town lol :) P.S. I tried submitting this once already so I hope it does not post twice?More</t>
   </si>
   <si>
+    <t>Chevo E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234140265-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -424,6 +463,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>schenelpatterson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r215215802-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
@@ -943,43 +985,47 @@
       <c r="A2" t="n">
         <v>35566</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -991,56 +1037,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35566</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1054,50 +1104,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35566</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1117,50 +1171,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35566</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1180,50 +1238,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35566</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178311</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1241,50 +1303,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35566</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1302,50 +1368,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35566</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178312</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1359,50 +1429,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35566</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>10883</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1420,50 +1494,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35566</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1477,50 +1555,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35566</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>138294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1544,50 +1626,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35566</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178314</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1607,50 +1693,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35566</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178315</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1664,50 +1754,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35566</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178316</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1727,41 +1821,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35566</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178317</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1790,7 +1888,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_716.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_716.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kevin M</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r605313940-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>225495</t>
+  </si>
+  <si>
+    <t>605313940</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>No noise from surrounding guests.  If your in the room there is a good selection of channels on the tv.  If you need to shop there are plenty of options.  There is a large medical center next door.  Plenty of restaurant options.  A really nice grocery store close by called Market Street we decided it’s a mix of Whole Foods and a Kroger.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r589955173-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>589955173</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Nice place across the street from the Baylor Scott &amp; White Medical Center.</t>
+  </si>
+  <si>
+    <t>Studio 6 Dallas - Plano Medical Center is right across a two-lane street from the Baylor Scott &amp; White Medical Center.  The motel is clean, fairly modern, and well maintained.  I stayed for two nights and found the staff to be pleasant and helpful.  There is guest laundry but I didn’t use it. I am fairly certain that the motel doesn’t provide breakfast but there is an IHOP(B) about 100 yards away that can be walked to. My room was very nice for $55 a night and included a kitchenette with a small stove, microwave, full-sized refrigerator, and cupboards containing tableware.  There was also a two-person dining table.  The king-sized mattress was firmly comfortable and the linens were clean and soft.  Basic cable was included.  The bathroom was small but clean and the shower / tub had nice water pressure and an adjustable shower head. The main room had laminate flooring which seemed much cleaner than a traditional motel carpet.If I have to visit the Medical Center again I will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Studio 6 Dallas - Plano Medical Center is right across a two-lane street from the Baylor Scott &amp; White Medical Center.  The motel is clean, fairly modern, and well maintained.  I stayed for two nights and found the staff to be pleasant and helpful.  There is guest laundry but I didn’t use it. I am fairly certain that the motel doesn’t provide breakfast but there is an IHOP(B) about 100 yards away that can be walked to. My room was very nice for $55 a night and included a kitchenette with a small stove, microwave, full-sized refrigerator, and cupboards containing tableware.  There was also a two-person dining table.  The king-sized mattress was firmly comfortable and the linens were clean and soft.  Basic cable was included.  The bathroom was small but clean and the shower / tub had nice water pressure and an adjustable shower head. The main room had laminate flooring which seemed much cleaner than a traditional motel carpet.If I have to visit the Medical Center again I will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r576257555-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>576257555</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Switched</t>
+  </si>
+  <si>
+    <t>We were not supposed to be staying in this hotel, we were booked into the one next door but last minute we had an email telling us that our hotel was under refurbishment and we had been put into this one. We were pleasantly surprised as it was cheaper and had everything we needed.We had a little kitchen fully stocked with plates, cups etc( although we did try to boil some water to make a cup of tea - yes we are English - and after 20 minutes of the pan on the hobb it still wasn’t near to boiling so we gave up ), The room had a full sized fridge. The hotel doesn’t offer breakfast but we had been shopping the night before and put it in the fridge.  The washing machines in the hallway were very clean and very new so we did our laundry whilst here, our room was right next to the machines but we heard nothing.The only complaint I have about the room would be it needs a deeper clean, the floor in the bathroom wasn’t the best cleaned nor was the kitchen, it wasn’t filthy but could be done better.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We were not supposed to be staying in this hotel, we were booked into the one next door but last minute we had an email telling us that our hotel was under refurbishment and we had been put into this one. We were pleasantly surprised as it was cheaper and had everything we needed.We had a little kitchen fully stocked with plates, cups etc( although we did try to boil some water to make a cup of tea - yes we are English - and after 20 minutes of the pan on the hobb it still wasn’t near to boiling so we gave up ), The room had a full sized fridge. The hotel doesn’t offer breakfast but we had been shopping the night before and put it in the fridge.  The washing machines in the hallway were very clean and very new so we did our laundry whilst here, our room was right next to the machines but we heard nothing.The only complaint I have about the room would be it needs a deeper clean, the floor in the bathroom wasn’t the best cleaned nor was the kitchen, it wasn’t filthy but could be done better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r567913021-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>567913021</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Great location in Plano,recently remodeled,reliability of service and staff</t>
+  </si>
+  <si>
+    <t>I am a freelance enterprise consultant for the Fortune 500 and travel. i have stayed at this hotel because it meets all of my requirements including my analysis for a disaster recovery in event of power outages and storms  with its location in the heart of the Plano corporate headquarters.having Baylor medical directly across the street for emergency backup. The hotel staff all work together well to support accommodations and great customer service and are trustworthy. The owner Nick Patel, Rene,Mike in management,Chevo head if maintenance,Clara head of housekeeping staff and the housekeeping staff have provided excellent service for over 2 years. Sincerely Ngray</t>
+  </si>
+  <si>
+    <t>March 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r507530635-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>225495</t>
-  </si>
-  <si>
     <t>507530635</t>
   </si>
   <si>
@@ -189,9 +273,6 @@
     <t>You get what you pay for; sometimes less. That is what we got here. First, the staff was lackluster and indifferent. We were there for a consultation at a local hospital so we were pressed for time to make it on time. The first room they gave us was not cleaned. So we went back to the front office to ask for another room.  The staff wanted us to wait 15 minutes to have the room cleaned. He were very pressed for time but agreed. Thirty minutes later we were still waiting. Another trip to the front desk. They seemed very put out but finally gave us another room. To their benefit the room was bigger than we asked for but it reeked of cigarette smoke. Oh well; we are late we will live with it. Upon return that night we noticed the room was very dated, needed a lot of TLC and some paint. The roiled seat needed repair. Light shown through the bottom of the door and the security lock on the door was loose. The pillows are tiny but the bed was comfortable.  I'm sure we will have to return to this area again soon; but I'm going somewhere else. Even at the discount rate we felt cheated. So long Motel 6.More</t>
   </si>
   <si>
-    <t>GrodTzu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r445978095-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -216,9 +297,6 @@
     <t>Ok, this is a really low-cost place in a highly traveled/expensive part of No Dallas metroplex. There's a reason this place is &lt;50% cost of several chain motels within 1-block ... simple ... it's cheap because otherwise no one would stay there. Other reviewers went into great detail highlighting the absurd lack of cleanliness, abject filth, deferred maintenance, disrepair, lack of amenities - much less working amenities, safety perceptions, etc ... and it's all true ... so no need for em to play "let me top your horror story". I offer a warning: check the reviews post 2014. For the past 2-years, the Bates Motel w/Norman rates higher amongst guests. READ recent reviews. I paid $51/night for 3-nights. If it was $5/night I wouldn't do it again. I got lazy - by having decent recent Motel 6 experiences - &amp; did not do my homework; I did not read the last 12-months (or any) reviews. As a result, I suffered ... &amp; rightly so. My fault. Caveat Emptor says it best. The parent company should be ashamed that this Motel is allowed to keep their franchise &amp;/or management. I would never chance staying at any Motel 6 and/or Studio 6 again ... much less this particular location. If I'm lying - let me be dying.More</t>
   </si>
   <si>
-    <t>RippedOff42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r438867208-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -237,10 +315,40 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>13bedbugz</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r421016264-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>421016264</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Lower budget</t>
+  </si>
+  <si>
+    <t>First impression was ok.  Got in the room and it went down. The roach in the bathroom started things out, along with the unfinished cabinets. Add the water stained furniture hiding the black .mold on the wall above the peeling paint and loose baseboard. I didn't expect a great deal for $70 a night, but this doesn't cut it. I had to repair the toilet handle to make it work. I won't be coming g back here except in dire necessity. There are obvious signs of repaired water damage in the ceiling.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r378842460-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>378842460</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Basic Needs Met</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks. It's no frills, but not bad for the money. I was near my place of employment. I found the front desk staff to be very accommodating. I even had mail sent here. One con is the laundry area was dirty and most of the machines were not working. I found a local laundry and did my wash there.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r364744477-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
@@ -258,15 +366,9 @@
     <t>Well I have tried this place 3 times and it does not get better,  First time ChristmasDay 2015,  I had been staying at the La Quinta and decided I wanted a kitchen for Christmas dinner so I got on booking.com and booked a room at the Studio 6 in Plano,  soon as I got there there were issues.  They would not accept my reservations.  They were not full but apparently the manager hates women as I later found out.  He would not allow me to check in at all.Second time I tried again  they rented me a room that smelled so much like cats my eyes swollen shut in a matter of minutes.But this third time was amazing,  from the start it felt like a housing project,  People hanging outside, friendly as can be.... but very much into your business.  Under the cabnets were rotted out... see pix.  roaches climbing all over the walls.  filth under the cabnets,  fridge barely cooled and was filthy,  batteries out of the fire alarm, tub did not drain.  trash all over parking lot,   One woman had been promised the room that I was given and she had to  at me about it everytime I went up the stairs.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>Well I have tried this place 3 times and it does not get better,  First time ChristmasDay 2015,  I had been staying at the La Quinta and decided I wanted a kitchen for Christmas dinner so I got on booking.com and booked a room at the Studio 6 in Plano,  soon as I got there there were issues.  They would not accept my reservations.  They were not full but apparently the manager hates women as I later found out.  He would not allow me to check in at all.Second time I tried again  they rented me a room that smelled so much like cats my eyes swollen shut in a matter of minutes.But this third time was amazing,  from the start it felt like a housing project,  People hanging outside, friendly as can be.... but very much into your business.  Under the cabnets were rotted out... see pix.  roaches climbing all over the walls.  filth under the cabnets,  fridge barely cooled and was filthy,  batteries out of the fire alarm, tub did not drain.  trash all over parking lot,   One woman had been promised the room that I was given and she had to  at me about it everytime I went up the stairs.More</t>
   </si>
   <si>
-    <t>mpdolls</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r362398639-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -285,12 +387,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Linda H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r344400419-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -312,7 +408,40 @@
     <t>Stayed here for 28 days because it was next door to The Heart Hospital Baylor Plano where my family member underwent open heart surgery.  The room met my needs but was not as clean as it should have been by the staff.  I solved this by purchasing minimum cleaning supplies and cleaning my room myself to my standards.  The front desk was not warm and outgoing, but friendly and not rude.  Laundry facilities were dirty and left marks on my clothing so I found a laundromat elsewhere and used it.  Bathroom was not very clean but I was able to make it work by cleaning it myself.  The shower did not have water pressure. In a pinch, I would use it again but would prefer a different hotel.  One morning, there were homeless people sleeping under the stairwell outside leading to the rooms on the upper floors.More</t>
   </si>
   <si>
-    <t>Heseriwa</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r344169032-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>344169032</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice &amp; clean rooms and manager and his Wife was helpful!! Also they help me for find good diner !! I'll tell my friends to stay here and that was good location for everything even mall too!! I'll stay all time in my future stay! Thank you!!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r331276013-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>331276013</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE PLACE!! Managment and FRONT DESK are AWFUL!</t>
+  </si>
+  <si>
+    <t>Rene who runs the front desk is awful!  I had been there a month and the church was paying for my 3 month stay as a I am a victim of domestic violence.  Rene came banging on my door yelling at me to be out in 5 minutes.  I opened the door and he told me the credit card on file (from the church) needed to be authorized each month and it wasn't so I needed to be out in 5 minutes or he was calling the police and locking me out of my room.  Had I been given even 24 hours notice I would have had this taken care of but he just came screaming at me.  When my priest showed up to authorize payment, Rene was awful to him.  He is a horrible person who has the worst customer service skills I have ever seen. And of course he would not give me the phone number to his suprevisor/owner.  He seriously terrified me.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Rene who runs the front desk is awful!  I had been there a month and the church was paying for my 3 month stay as a I am a victim of domestic violence.  Rene came banging on my door yelling at me to be out in 5 minutes.  I opened the door and he told me the credit card on file (from the church) needed to be authorized each month and it wasn't so I needed to be out in 5 minutes or he was calling the police and locking me out of my room.  Had I been given even 24 hours notice I would have had this taken care of but he just came screaming at me.  When my priest showed up to authorize payment, Rene was awful to him.  He is a horrible person who has the worst customer service skills I have ever seen. And of course he would not give me the phone number to his suprevisor/owner.  He seriously terrified me.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r311367447-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
@@ -336,9 +465,6 @@
     <t>Stayed 5 nights and the place was clean and comfy with everything you need in an apartment - stove top, fridge/freezer, microwave, coffee maker, cutlery and dishes etc; good pressure in the shower; comfy bed; working aircon; double locks on the door; close to various eateries. Will absolutely stay again after I get my driver's license. - A couple of tiny cockroaches when we first got there at night, but they'd moved out by bedtime never to be seen again.- Pretty noisy; the bed shakes pretty heavily when the cleaning ladies go by with their trolleys.- Horrible picture quality on the TV.- Pretty difficult getting around the area without a car.- Night staff was a bit odd...More</t>
   </si>
   <si>
-    <t>Joseph C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r310675700-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -357,9 +483,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>ShirleyP1958</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r297648381-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -381,7 +504,37 @@
     <t>This is the worst place I've every stayed and I live on the road for business so I've been at several places. Along with the filthy laundry room, the substandard furnishings in the room, the filthy grounds, loud neighbors, (no one here after 8 pm in the office to complain to when they start up at midnight), to the rude lying foreign maids, of which you can't talk to or ask questions unless you speak Spanish. This is a place to avoid at all costs. My tv is snowy and management does nothing about it. Fire alarm goes off and no one checks on it. No management no fire trucks nothing. I feel so safe (sarcasm). People live here! And they are not travelers here for work, at a business. The first thing I did was coat the place with roach spray just in case. I think I have a good barricade. O I'm at this place because my company put me here but I will never do it again.     May fill out another comment later this is just my first of three months here. More</t>
   </si>
   <si>
-    <t>Melody K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r295062551-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>295062551</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>It's Okay.</t>
+  </si>
+  <si>
+    <t>Nothing too special. When we arrived, around midnight, there was a lot of activity going on outside. The king size bed room we got was okay. The bed was actually really comfortable. Room had a little musk to it but other than that it was fine. Would probably stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r244274357-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>244274357</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Ripoff!!!</t>
+  </si>
+  <si>
+    <t>On line deceivement, I was charged over $300 dollars for a 4 night stay..I read on line that they offered a free grab &amp; go breakfast not true, there is like a some build in piece of fiber glass burner for a stove, the so call flat screen is old the picture is bad you can barely see it, the carpet was so fllthy our room was suppose to be smoke free, but the blanket and bed spread had CIGARETTE burns in it, when the air condition come on the smell was awful!! Not enough clean towels!! People going up and down the stairs all night long, we went through (3) cans of Lysol I kept on shoes most of the time the chairs were filthy...they know they are ripping people off..I will never stay here again..MoreShow less</t>
+  </si>
+  <si>
+    <t>On line deceivement, I was charged over $300 dollars for a 4 night stay..I read on line that they offered a free grab &amp; go breakfast not true, there is like a some build in piece of fiber glass burner for a stove, the so call flat screen is old the picture is bad you can barely see it, the carpet was so fllthy our room was suppose to be smoke free, but the blanket and bed spread had CIGARETTE burns in it, when the air condition come on the smell was awful!! Not enough clean towels!! People going up and down the stairs all night long, we went through (3) cans of Lysol I kept on shoes most of the time the chairs were filthy...they know they are ripping people off..I will never stay here again..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r239857986-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
@@ -402,9 +555,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>mr san p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234559729-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -423,9 +573,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>25l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234204023-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -447,7 +594,31 @@
     <t>I live locally and when the AC went out at home I needed a place to stay for 2 days. I found the studio 6 listing and was a little leary because of past reviews but figured heck it's close and it's only 2 days. I was pleasantly surprised at the cleanliness and size of the rooms they are about as big as a studio apartment with a full kitchen and flat screen tvs. The pics are accurate and up to date. Staff was very pleasant when I needed a light bulb changed in the bathroom they sent someone right away with no problem. I found it to be quiet and secure as they have security that patrol the propety. All in all was a great stay and will definitely send the inlaws here next time they are in town lol :) P.S. I tried submitting this once already so I hope it does not post twice?More</t>
   </si>
   <si>
-    <t>Chevo E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234167670-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>234167670</t>
+  </si>
+  <si>
+    <t>Bhaumik Patel</t>
+  </si>
+  <si>
+    <t>I went to studio 6 in Plano and they had an excellent service and they have nice decorated rooms. I had feeling like I was at home only. Clean indoor pool and JacuzziFree Wi-FiComfortable, clean rooms.Microwaves</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234162928-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>234162928</t>
+  </si>
+  <si>
+    <t>Strongly recommended!!!</t>
+  </si>
+  <si>
+    <t>I stayed long time ago when it was under other management, I came back few weeks ago and I saw all the great changes, all the staff is great, the manager, people at the front desk and all the maids are very very helpful !!! I will come back for sure !!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r234140265-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
@@ -460,12 +631,6 @@
   </si>
   <si>
     <t>Nick (manager) is very friendly and professional he is very helpful with any questions I had about the hotel. Rene (Front desk) is always friendly and helpful as well. They have security at night he walks around and you can call him in the middle of the night . The whole staff here does a great job. The room itself was clean and decent and property is clean.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>schenelpatterson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d225495-r215215802-Studio_6_Dallas_Plano_Medical_Center-Plano_Texas.html</t>
@@ -985,47 +1150,43 @@
       <c r="A2" t="n">
         <v>35566</v>
       </c>
-      <c r="B2" t="n">
-        <v>3788</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1036,201 +1197,183 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35566</v>
       </c>
-      <c r="B3" t="n">
-        <v>178310</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35566</v>
       </c>
-      <c r="B4" t="n">
-        <v>136178</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35566</v>
       </c>
-      <c r="B5" t="n">
-        <v>119689</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1238,251 +1381,237 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35566</v>
       </c>
-      <c r="B6" t="n">
-        <v>178311</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35566</v>
       </c>
-      <c r="B7" t="n">
-        <v>1214</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35566</v>
       </c>
-      <c r="B8" t="n">
-        <v>178312</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35566</v>
       </c>
-      <c r="B9" t="n">
-        <v>10883</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1494,131 +1623,123 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35566</v>
       </c>
-      <c r="B10" t="n">
-        <v>178313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35566</v>
       </c>
-      <c r="B11" t="n">
-        <v>138294</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1626,66 +1747,60 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35566</v>
       </c>
-      <c r="B12" t="n">
-        <v>178314</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1693,188 +1808,170 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35566</v>
       </c>
-      <c r="B13" t="n">
-        <v>178315</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35566</v>
       </c>
-      <c r="B14" t="n">
-        <v>178316</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35566</v>
       </c>
-      <c r="B15" t="n">
-        <v>178317</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>1</v>
       </c>
@@ -1888,7 +1985,741 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35566</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
